--- a/Reports/Banking/Concusion for Banking.xlsx
+++ b/Reports/Banking/Concusion for Banking.xlsx
@@ -2,25 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\108 Survey Project\Reports\Banking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5C1641-3461-4C89-966E-47945F1EE813}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49B929A-9BE9-4D31-9727-84B308548AAD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="4" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="128">
   <si>
     <t>Timestamp</t>
   </si>
@@ -260,27 +259,6 @@
     <t>ພະນັກງານເທວເລີ້/ສິນເຊື່ອ</t>
   </si>
   <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Count of Number of employee (Full-time equivalent)</t>
-  </si>
-  <si>
-    <t>Average of Teller (new graduate)</t>
-  </si>
-  <si>
-    <t>Average of Teller (7 years experience)</t>
-  </si>
-  <si>
-    <t>Average of Teller(1 - 3 years experience)</t>
-  </si>
-  <si>
-    <t>Average of Teller (4 - 6 years experience)</t>
-  </si>
-  <si>
     <t>Communication Skills</t>
   </si>
   <si>
@@ -426,6 +404,18 @@
   </si>
   <si>
     <t xml:space="preserve"> ທັກສະດ້ານການຈູງໃຈ</t>
+  </si>
+  <si>
+    <t>Average of Relationship Manager (new graduate)</t>
+  </si>
+  <si>
+    <t>Average of Relationship Manager (1 - 3 years experience)</t>
+  </si>
+  <si>
+    <t>Average of Relationship Manager (4 - 6 years experience)</t>
+  </si>
+  <si>
+    <t>Average of Relationship Manager (7 years experience)</t>
   </si>
 </sst>
 </file>
@@ -470,23 +460,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="63">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1618,11 +1624,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bee Timberlake" refreshedDate="43649.586465740744" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="6" xr:uid="{045F8427-6CD7-4679-B073-B50DD1579CCA}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bee Timberlake" refreshedDate="43657.558265856482" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="6" xr:uid="{12FE5984-09E1-4507-A3F0-22DA98E21118}">
   <cacheSource type="worksheet">
     <worksheetSource name="RawData"/>
   </cacheSource>
-  <cacheFields count="47">
+  <cacheFields count="63">
     <cacheField name="Timestamp" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2019-06-12T13:46:32" maxDate="2019-06-17T21:06:02"/>
     </cacheField>
@@ -1636,17 +1642,10 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Number of employee (Full-time equivalent)" numFmtId="0">
-      <sharedItems count="2">
-        <s v="51-100"/>
-        <s v="10-50"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Teller (new graduate)" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="250" maxValue="350" count="3">
-        <n v="250"/>
-        <n v="350"/>
-        <n v="300"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="250" maxValue="350"/>
     </cacheField>
     <cacheField name="Teller(1 - 3 years experience)" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="325" maxValue="400"/>
@@ -1670,10 +1669,10 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="500" maxValue="750"/>
     </cacheField>
     <cacheField name="Relationship Manager (new graduate)" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1500"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="750" maxValue="1500"/>
     </cacheField>
     <cacheField name="Relationship Manager (1 - 3 years experience)" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="2000"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1100" maxValue="2000"/>
     </cacheField>
     <cacheField name="Relationship Manager (4 - 6 years experience)" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1350" maxValue="2500"/>
@@ -1769,7 +1768,55 @@
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="What kind of skills does your Company or Organization require?" numFmtId="0">
-      <sharedItems longText="1"/>
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Column1" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Column2" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Column3" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Column4" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Column5" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column6" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column7" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column8" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column9" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column10" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column11" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column12" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column13" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column14" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column15" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column16" numFmtId="0">
+      <sharedItems containsBlank="1"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1787,8 +1834,8 @@
     <s v="Donekeo Sengakhom"/>
     <s v="done@welcomelao.com"/>
     <s v="Welcome Leasing Lao Co., Ltd"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="51-100"/>
+    <n v="250"/>
     <n v="325"/>
     <n v="475"/>
     <n v="800"/>
@@ -1829,15 +1876,31 @@
     <s v="Sales &amp; Marketing, Collection, teller"/>
     <m/>
     <m/>
-    <s v="Communication Skills, Technical Knowledge, Teamwork and Collaboration, Problem Solving, Self-Management and Initiative, Critical and Creative Thinking, Global Fluency &amp; Perspective, Flexibility / Adaptability, Leadership / Management Skills, Self-confidence, Languages, Public Speaking, Sales and Marketing Skills, Computer / IT Literacy, Time Management, Persuasion"/>
+    <s v="Communication Skills"/>
+    <s v=" Technical Knowledge"/>
+    <s v=" Teamwork and Collaboration"/>
+    <s v=" Problem Solving"/>
+    <s v=" Self-Management and Initiative"/>
+    <s v=" Critical and Creative Thinking"/>
+    <s v=" Global Fluency &amp; Perspective"/>
+    <s v=" Flexibility / Adaptability"/>
+    <s v=" Leadership / Management Skills"/>
+    <s v=" Self-confidence"/>
+    <s v=" Languages"/>
+    <s v=" Public Speaking"/>
+    <s v=" Sales and Marketing Skills"/>
+    <s v=" Computer / IT Literacy"/>
+    <s v=" Time Management"/>
+    <s v=" Persuasion"/>
+    <m/>
   </r>
   <r>
     <d v="2019-06-12T14:45:15"/>
     <s v="Anouphong Southivong "/>
     <s v="anouphong.southivong@rhbgroup.com"/>
     <s v="RHB Bank Lao Ltd"/>
-    <x v="0"/>
-    <x v="1"/>
+    <s v="51-100"/>
+    <n v="350"/>
     <n v="400"/>
     <n v="450"/>
     <n v="550"/>
@@ -1878,15 +1941,31 @@
     <s v="Sale and Credit staff "/>
     <m/>
     <m/>
-    <s v="Communication Skills, Technical Knowledge, Teamwork and Collaboration, Problem Solving, Self-Management and Initiative, Critical and Creative Thinking, Flexibility / Adaptability, Leadership / Management Skills, Self-confidence, Public Speaking, Sales and Marketing Skills, Computer / IT Literacy, Time Management"/>
+    <s v="Communication Skills"/>
+    <s v=" Technical Knowledge"/>
+    <s v=" Teamwork and Collaboration"/>
+    <s v=" Problem Solving"/>
+    <s v=" Self-Management and Initiative"/>
+    <s v=" Critical and Creative Thinking"/>
+    <s v=" Flexibility / Adaptability"/>
+    <s v=" Leadership / Management Skills"/>
+    <s v=" Self-confidence"/>
+    <s v=" Public Speaking"/>
+    <s v=" Sales and Marketing Skills"/>
+    <s v=" Computer / IT Literacy"/>
+    <s v=" Time Management"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2019-06-13T14:33:48"/>
     <s v="Worasit SANGKUL"/>
     <s v="worasits@maruhanjapanbanklao.com"/>
     <s v="MARUHAN Japan Bank Lao"/>
-    <x v="0"/>
-    <x v="2"/>
+    <s v="51-100"/>
+    <n v="300"/>
     <n v="350"/>
     <n v="450"/>
     <n v="650"/>
@@ -1894,8 +1973,8 @@
     <n v="380"/>
     <n v="500"/>
     <n v="750"/>
-    <n v="0"/>
-    <n v="0"/>
+    <m/>
+    <m/>
     <n v="1800"/>
     <n v="2000"/>
     <n v="320"/>
@@ -1927,15 +2006,31 @@
     <s v="IT, Customer Service, Admin, HR, Teller, Audit, Relationship"/>
     <m/>
     <m/>
-    <s v="Communication Skills, Technical Knowledge, Teamwork and Collaboration, Problem Solving, Self-Management and Initiative, Critical and Creative Thinking, Global Fluency &amp; Perspective, Flexibility / Adaptability, Leadership / Management Skills, Self-confidence, Languages, Public Speaking, Sales and Marketing Skills, Computer / IT Literacy, Time Management, Persuasion, Personal Attitude and Mindset"/>
+    <s v="Communication Skills"/>
+    <s v=" Technical Knowledge"/>
+    <s v=" Teamwork and Collaboration"/>
+    <s v=" Problem Solving"/>
+    <s v=" Self-Management and Initiative"/>
+    <s v=" Critical and Creative Thinking"/>
+    <s v=" Global Fluency &amp; Perspective"/>
+    <s v=" Flexibility / Adaptability"/>
+    <s v=" Leadership / Management Skills"/>
+    <s v=" Self-confidence"/>
+    <s v=" Languages"/>
+    <s v=" Public Speaking"/>
+    <s v=" Sales and Marketing Skills"/>
+    <s v=" Computer / IT Literacy"/>
+    <s v=" Time Management"/>
+    <s v=" Persuasion"/>
+    <s v=" Personal Attitude and Mindset"/>
   </r>
   <r>
     <d v="2019-06-13T14:34:20"/>
     <s v="Worasit SANGKUL"/>
     <s v="worasits@maruhanjapanbanklao.com"/>
     <s v="MARUHAN Japan Bank Lao"/>
-    <x v="0"/>
-    <x v="2"/>
+    <s v="51-100"/>
+    <n v="300"/>
     <n v="350"/>
     <n v="450"/>
     <n v="650"/>
@@ -1943,8 +2038,8 @@
     <n v="380"/>
     <n v="500"/>
     <n v="750"/>
-    <n v="0"/>
-    <n v="0"/>
+    <m/>
+    <m/>
     <n v="1800"/>
     <n v="2000"/>
     <n v="320"/>
@@ -1976,15 +2071,31 @@
     <s v="IT, Customer Service, Admin, HR, Teller, Audit, Relationship"/>
     <m/>
     <m/>
-    <s v="Communication Skills, Technical Knowledge, Teamwork and Collaboration, Problem Solving, Self-Management and Initiative, Critical and Creative Thinking, Global Fluency &amp; Perspective, Flexibility / Adaptability, Leadership / Management Skills, Self-confidence, Languages, Public Speaking, Sales and Marketing Skills, Computer / IT Literacy, Time Management, Persuasion, Personal Attitude and Mindset"/>
+    <s v="Communication Skills"/>
+    <s v=" Technical Knowledge"/>
+    <s v=" Teamwork and Collaboration"/>
+    <s v=" Problem Solving"/>
+    <s v=" Self-Management and Initiative"/>
+    <s v=" Critical and Creative Thinking"/>
+    <s v=" Global Fluency &amp; Perspective"/>
+    <s v=" Flexibility / Adaptability"/>
+    <s v=" Leadership / Management Skills"/>
+    <s v=" Self-confidence"/>
+    <s v=" Languages"/>
+    <s v=" Public Speaking"/>
+    <s v=" Sales and Marketing Skills"/>
+    <s v=" Computer / IT Literacy"/>
+    <s v=" Time Management"/>
+    <s v=" Persuasion"/>
+    <s v=" Personal Attitude and Mindset"/>
   </r>
   <r>
     <d v="2019-06-12T14:04:39"/>
     <s v="ຈິນດາວັນ ວິລິວົງ"/>
     <s v="dgb.leasing@gmail.com"/>
     <s v="DGB Lao Leasing Co., Ltd"/>
-    <x v="1"/>
-    <x v="2"/>
+    <s v="10-50"/>
+    <n v="300"/>
     <n v="400"/>
     <n v="500"/>
     <m/>
@@ -2025,15 +2136,31 @@
     <s v="Teller, Credit and Collection"/>
     <m/>
     <m/>
-    <s v="ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ, ທັກສະດ້ານເຕັກນິກ, ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ, ທັກສະດ້ານການແກ້ໄຂບັນຫາ, ທັກສະດ້ານການພັດທະນາຕົນເອງ ແລະມີແນວຄິດລິເລີ່ມ, ທັກສະດ້ານຄວາມຄິດສັງສັນ ແລະຄິດຢ່າງມີວິຈາລະນາຍານ, ທັກສະດ້ານແນວຄວາມຄິດສາກົນ, ທັກສະດ້ານການປັບຕົວ ແລະຄວາມຍືດຫຍຸ່ນ, ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ, ທັກສະດ້ານຄວາມໝັ້ນໃຈຕົນເອງ, ທັກສະດ້ານພາສາ, ທັກສະດ້ານການເວົ້າຕໍ່ໜ້າມວນຊົນ, ທັກສະດ້ານການຂາຍ ແລະການຕະຫຼາດ, ທັກສະດ້ານຄອມພິວເຕີ, ທັກສະດ້ານການຈັດການເວລາ, ທັກສະດ້ານການຈູງໃຈ"/>
+    <s v="ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ"/>
+    <s v=" ທັກສະດ້ານເຕັກນິກ"/>
+    <s v=" ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ"/>
+    <s v=" ທັກສະດ້ານການແກ້ໄຂບັນຫາ"/>
+    <s v=" ທັກສະດ້ານການພັດທະນາຕົນເອງ ແລະມີແນວຄິດລິເລີ່ມ"/>
+    <s v=" ທັກສະດ້ານຄວາມຄິດສັງສັນ ແລະຄິດຢ່າງມີວິຈາລະນາຍານ"/>
+    <s v=" ທັກສະດ້ານແນວຄວາມຄິດສາກົນ"/>
+    <s v=" ທັກສະດ້ານການປັບຕົວ ແລະຄວາມຍືດຫຍຸ່ນ"/>
+    <s v=" ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ"/>
+    <s v=" ທັກສະດ້ານຄວາມໝັ້ນໃຈຕົນເອງ"/>
+    <s v=" ທັກສະດ້ານພາສາ"/>
+    <s v=" ທັກສະດ້ານການເວົ້າຕໍ່ໜ້າມວນຊົນ"/>
+    <s v=" ທັກສະດ້ານການຂາຍ ແລະການຕະຫຼາດ"/>
+    <s v=" ທັກສະດ້ານຄອມພິວເຕີ"/>
+    <s v=" ທັກສະດ້ານການຈັດການເວລາ"/>
+    <s v=" ທັກສະດ້ານການຈູງໃຈ"/>
+    <m/>
   </r>
   <r>
     <d v="2019-06-17T21:06:02"/>
     <s v="ອະລຸນໂນໄທ ສຸລິເມືອງຈັນ"/>
     <s v="asoulimeuangchan@gmail.com"/>
     <s v="ສະຖາບັນການເງິນຈຸລະພາກທີ່ຮັບເງິນຝາກ ຈຳປາສັກ ຈຳກັດ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="51-100"/>
+    <n v="250"/>
     <n v="350"/>
     <m/>
     <m/>
@@ -2074,121 +2201,56 @@
     <s v="ພະນັກງານເທວເລີ້/ສິນເຊື່ອ"/>
     <m/>
     <m/>
-    <s v="ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ, ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ, ທັກສະດ້ານການແກ້ໄຂບັນຫາ, ທັກສະດ້ານການພັດທະນາຕົນເອງ ແລະມີແນວຄິດລິເລີ່ມ, ທັກສະດ້ານການປັບຕົວ ແລະຄວາມຍືດຫຍຸ່ນ"/>
+    <s v="ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ"/>
+    <s v=" ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ"/>
+    <s v=" ທັກສະດ້ານການແກ້ໄຂບັນຫາ"/>
+    <s v=" ທັກສະດ້ານການພັດທະນາຕົນເອງ ແລະມີແນວຄິດລິເລີ່ມ"/>
+    <s v=" ທັກສະດ້ານການປັບຕົວ ແລະຄວາມຍືດຫຍຸ່ນ"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7878404B-5FED-47AA-BD3D-65ABB2C4B02C}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="47">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A16E1CDB-0C6F-4AA3-8918-5A9FED9003C3}" name="Data" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="63">
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Number of employee (Full-time equivalent)" fld="4" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2C8EB5A7-2BEB-4093-BA24-A088844F9D1D}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A3:D4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="47">
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -2249,85 +2311,11 @@
     </i>
   </colItems>
   <dataFields count="4">
-    <dataField name="Average of Teller (new graduate)" fld="5" subtotal="average" baseField="0" baseItem="1"/>
-    <dataField name="Average of Teller(1 - 3 years experience)" fld="6" subtotal="average" baseField="0" baseItem="1"/>
-    <dataField name="Average of Teller (4 - 6 years experience)" fld="7" subtotal="average" baseField="0" baseItem="1"/>
-    <dataField name="Average of Teller (7 years experience)" fld="8" subtotal="average" baseField="0" baseItem="1"/>
+    <dataField name="Average of Relationship Manager (new graduate)" fld="13" subtotal="average" baseField="0" baseItem="1"/>
+    <dataField name="Average of Relationship Manager (1 - 3 years experience)" fld="14" subtotal="average" baseField="0" baseItem="1"/>
+    <dataField name="Average of Relationship Manager (4 - 6 years experience)" fld="15" subtotal="average" baseField="0" baseItem="1"/>
+    <dataField name="Average of Relationship Manager (7 years experience)" fld="16" subtotal="average" baseField="0" baseItem="1"/>
   </dataFields>
-  <chartFormats count="8">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -2341,72 +2329,144 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{555EC03E-257C-4E5D-9117-9DFAF74D60D5}" name="RawData" displayName="RawData" ref="A1:BK7" totalsRowShown="0" dataDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{61C26D81-BFB5-49EA-9177-C72443EB696A}" name="Table2" displayName="Table2" ref="A1:BK7" totalsRowShown="0">
+  <autoFilter ref="A1:BK7" xr:uid="{C6969EA0-0289-47CF-94FC-443781BF7492}"/>
+  <tableColumns count="63">
+    <tableColumn id="1" xr3:uid="{5C1D20FE-B1F8-42F7-9179-D04D944ABB4E}" name="Timestamp" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{7196B04B-4976-4557-8A7F-8412387BCE70}" name="Your Name"/>
+    <tableColumn id="3" xr3:uid="{4C367837-2360-4BA2-9001-2BA66EF21A39}" name="Your Email"/>
+    <tableColumn id="4" xr3:uid="{8C717247-4FC3-48E5-A715-7D1F299F0E12}" name="Company or Organization name"/>
+    <tableColumn id="5" xr3:uid="{57F40B47-A94D-4817-9B66-06FE47991238}" name="Number of employee (Full-time equivalent)"/>
+    <tableColumn id="6" xr3:uid="{36169B71-BCD8-4BDE-B354-ADB98AFF06DA}" name="Teller (new graduate)"/>
+    <tableColumn id="7" xr3:uid="{80D10943-2533-433D-BBFC-0B6B3A8AD94A}" name="Teller(1 - 3 years experience)"/>
+    <tableColumn id="8" xr3:uid="{CBB51FC4-08D3-43B5-8087-19F6BEC44CD6}" name="Teller (4 - 6 years experience)"/>
+    <tableColumn id="9" xr3:uid="{A8272C60-2FA1-468C-ABDD-09782EDF831B}" name="Teller (7 years experience)"/>
+    <tableColumn id="10" xr3:uid="{4D6DC9FB-74D7-4B24-81E7-9D90F2656B09}" name="Credit Officer (new graduate)"/>
+    <tableColumn id="11" xr3:uid="{5D9F30C3-F586-47C5-AEBD-4CBD6E200AFC}" name="Credit Officer (1 - 3 years experience)"/>
+    <tableColumn id="12" xr3:uid="{7EEF4FCF-A6AD-4784-B22D-EF424A565C98}" name="Credit Officer (4 - 6 years experience)"/>
+    <tableColumn id="13" xr3:uid="{6CFB4E21-5B17-41E5-A21C-EEF978664627}" name="Credit Officer (7 years experience)"/>
+    <tableColumn id="14" xr3:uid="{8017571D-E3E8-4CA5-8952-53AC42D1535C}" name="Relationship Manager (new graduate)"/>
+    <tableColumn id="15" xr3:uid="{C2AB1F2C-2A71-422D-A711-F29585003FA3}" name="Relationship Manager (1 - 3 years experience)"/>
+    <tableColumn id="16" xr3:uid="{7678C488-ED6C-4A7C-8884-FA35B538C2ED}" name="Relationship Manager (4 - 6 years experience)"/>
+    <tableColumn id="17" xr3:uid="{5B8A528D-FBBC-4CB0-AA17-BC36B2C98E14}" name="Relationship Manager (7 years experience)"/>
+    <tableColumn id="18" xr3:uid="{6921A8E1-02FA-4443-87C7-6F1D4D19F421}" name="Human Resources Officer (new graduate)"/>
+    <tableColumn id="19" xr3:uid="{198F0073-66C4-49ED-80A2-5E2EC4297C08}" name="Human Resources Officer (1 - 3 years experience)"/>
+    <tableColumn id="20" xr3:uid="{3402687B-896F-44BC-A975-0303B78CD901}" name="Human Resources Officer (4 - 6 years experience)"/>
+    <tableColumn id="21" xr3:uid="{9FE1A841-01DE-484E-B927-B4E78272E4DE}" name="Human Resources Officer (7 years experience)"/>
+    <tableColumn id="22" xr3:uid="{7BB0395D-0881-479E-9BF1-348361641F53}" name="Finance Officer (new graduate)"/>
+    <tableColumn id="23" xr3:uid="{A19A516D-149F-4EDC-BF49-2A66B738452D}" name="Finance Officer (1 - 3 years experience)"/>
+    <tableColumn id="24" xr3:uid="{BAF8FC90-F285-45AB-A8D7-673D1FFC96DA}" name="Finance Officer (4 - 6 years experience)"/>
+    <tableColumn id="25" xr3:uid="{C8A2EC99-0851-4121-A6A0-3E08895FB148}" name="Finance Officer (7 years experience)"/>
+    <tableColumn id="26" xr3:uid="{A290A0AA-D124-4155-8B88-2547856CE92F}" name="IT Officer (new graduate)"/>
+    <tableColumn id="27" xr3:uid="{E63F4E4A-2181-474A-8021-348D9647F2A7}" name="IT Officer (1 - 3 years experience)"/>
+    <tableColumn id="28" xr3:uid="{CC8E4E02-6467-4351-8B9F-D4BFE83C0CFF}" name="IT Officer (4 - 6 years experience)"/>
+    <tableColumn id="29" xr3:uid="{3DD817E5-D913-478D-B373-8E955FC534C6}" name="IT Officer (7 years experience)"/>
+    <tableColumn id="30" xr3:uid="{B0E783BF-CEE6-4FA7-8DE2-78A8528525B8}" name="Administrative Officer (new graduate)"/>
+    <tableColumn id="31" xr3:uid="{89A8921F-B77A-448C-86DD-6507BCD60C7A}" name="Administrative Officer (1 - 3 years experience)"/>
+    <tableColumn id="32" xr3:uid="{B2D6719B-CD5E-4B6F-8BEE-FE68E173F32E}" name="Administrative Officer (4 - 6 years experience)"/>
+    <tableColumn id="33" xr3:uid="{DE7F3B4A-946B-4A3C-835C-AF35CDD7A23B}" name="Administrative Officer (7 years experience)"/>
+    <tableColumn id="34" xr3:uid="{96F7A5D3-0772-4D3D-A42F-5CADEDE4F50B}" name="Compliance Officer (new graduate)"/>
+    <tableColumn id="35" xr3:uid="{931C531A-041C-4FF4-856B-B10799541784}" name="Compliance Officer (1 - 3 years experience)"/>
+    <tableColumn id="36" xr3:uid="{5656872A-F0CB-43F4-89E8-AFBE79385098}" name="Compliance Officer (4 - 6 years experience)"/>
+    <tableColumn id="37" xr3:uid="{94FF6D23-82F0-45EC-9691-9CCFF847279B}" name="Compliance Officer (7 years experience)"/>
+    <tableColumn id="38" xr3:uid="{F12546E4-049C-4163-A7FC-6C50410774C3}" name="Legal Officer (new graduate)"/>
+    <tableColumn id="39" xr3:uid="{04226227-9170-47E5-9B05-9C13FE8ADD0A}" name="Legal Officer (1 - 3 years experience)"/>
+    <tableColumn id="40" xr3:uid="{D0C27853-23E8-49BB-B236-2D94E2E40138}" name="Legal Officer (4 - 6 years experience)"/>
+    <tableColumn id="41" xr3:uid="{0276EFC3-09A2-40F9-ADF2-792216625846}" name="Legal Officer (7 years experience)"/>
+    <tableColumn id="42" xr3:uid="{160A6FAA-B7C2-4489-BAE1-82A3B09E520F}" name="Does your Company or Organization plan to increase or decrease headcount in next 6 to 12 months?"/>
+    <tableColumn id="43" xr3:uid="{2D6AC15C-3D44-435A-A5E4-E9A130FE5050}" name="Why does your Company or Organization increase the headcount?"/>
+    <tableColumn id="44" xr3:uid="{671E753E-948D-4B20-8D3B-50FEBC2646FB}" name="Please indicate job functions that your Company or Organization plan to hire or increase in next 6 to 12 months"/>
+    <tableColumn id="45" xr3:uid="{4BF34AD2-D6E4-4513-84F1-FB0B7F189C58}" name="Why does your Company or Organization decrease the headcount?"/>
+    <tableColumn id="46" xr3:uid="{334E2883-0A6A-42B6-8126-51F7D67AEECE}" name="Please indicate job functions that your Company or Organization plan to decrease in next 6 to 12 months"/>
+    <tableColumn id="47" xr3:uid="{5588EF18-147D-4A9A-A99F-9BECAC60BC7A}" name="What kind of skills does your Company or Organization require?"/>
+    <tableColumn id="48" xr3:uid="{BD55AD9A-88D3-4DE4-83E8-15B32BC9F549}" name="Column1"/>
+    <tableColumn id="49" xr3:uid="{710791E5-3211-4105-B213-BF67748B5432}" name="Column2"/>
+    <tableColumn id="50" xr3:uid="{F71687FA-FB06-41F4-80C5-02BC99FBEEA3}" name="Column3"/>
+    <tableColumn id="51" xr3:uid="{2CD42742-4444-43F7-BE76-C6B2B47A99CB}" name="Column4"/>
+    <tableColumn id="52" xr3:uid="{B4AD1EF0-E6B2-42DC-B19E-9FF0BF09558F}" name="Column5"/>
+    <tableColumn id="53" xr3:uid="{7AC197E9-F953-424B-A450-C1FF95E309BF}" name="Column6"/>
+    <tableColumn id="54" xr3:uid="{05AA8084-762B-4E69-93D6-BF7425DAAF1D}" name="Column7"/>
+    <tableColumn id="55" xr3:uid="{690240FD-B15C-4498-8F17-40DF9096F8B9}" name="Column8"/>
+    <tableColumn id="56" xr3:uid="{D4FEFDE8-BF48-477E-9AE9-FC80C5AF2DA8}" name="Column9"/>
+    <tableColumn id="57" xr3:uid="{EF19A085-DF25-4E18-9F4B-CCAC468F6DAB}" name="Column10"/>
+    <tableColumn id="58" xr3:uid="{1BE533C8-F465-46ED-8D1A-88D64D927DEC}" name="Column11"/>
+    <tableColumn id="59" xr3:uid="{6F5DB9D3-A504-4734-980D-1BFBBAB7275E}" name="Column12"/>
+    <tableColumn id="60" xr3:uid="{31148682-5255-4D08-97A8-18C9727B1E4F}" name="Column13"/>
+    <tableColumn id="61" xr3:uid="{78729E2C-1A86-4203-9BD3-9741F08C8504}" name="Column14"/>
+    <tableColumn id="62" xr3:uid="{F2F786A6-84F5-474F-9134-A9EFE5CEAA71}" name="Column15"/>
+    <tableColumn id="63" xr3:uid="{86595C0C-26B0-4C3E-84E5-35E880D63FD0}" name="Column16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{555EC03E-257C-4E5D-9117-9DFAF74D60D5}" name="RawData" displayName="RawData" ref="A1:BK7" totalsRowShown="0" dataDxfId="62">
   <autoFilter ref="A1:BK7" xr:uid="{7FE3D0E4-9961-4491-B89E-F74A1F4F38EB}"/>
   <tableColumns count="63">
-    <tableColumn id="1" xr3:uid="{6EA99E83-E1FD-4C22-BF5C-1CAFBB2949A6}" name="Timestamp" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{EB815338-E99B-42D0-9A89-2253094DA7C2}" name="Your Name" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{194B2003-711E-4CCA-8317-FBF621E35997}" name="Your Email" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{B5EF8F01-A37C-4F2C-AC65-0E26E9691BF5}" name="Company or Organization name" dataDxfId="57"/>
-    <tableColumn id="5" xr3:uid="{1ABCA8FF-5BFA-49B8-A521-AA1AB2AC85A2}" name="Number of employee (Full-time equivalent)" dataDxfId="56"/>
-    <tableColumn id="6" xr3:uid="{92C8BA14-4CD8-4E61-97D2-44634C80CCA8}" name="Teller (new graduate)" dataDxfId="55"/>
-    <tableColumn id="7" xr3:uid="{123AA8E7-5F83-42D8-932C-B0D5D348D710}" name="Teller(1 - 3 years experience)" dataDxfId="54"/>
-    <tableColumn id="8" xr3:uid="{36C822C9-F357-4552-8634-53802CA84169}" name="Teller (4 - 6 years experience)" dataDxfId="53"/>
-    <tableColumn id="9" xr3:uid="{2D074D0D-755C-4FF8-8F11-2A8B37C30527}" name="Teller (7 years experience)" dataDxfId="52"/>
-    <tableColumn id="10" xr3:uid="{2A3ECBF1-B581-4553-813E-CFEEAC14FFE8}" name="Credit Officer (new graduate)" dataDxfId="51"/>
-    <tableColumn id="11" xr3:uid="{2287CB61-44C0-43BD-BECA-10EB3BED28EA}" name="Credit Officer (1 - 3 years experience)" dataDxfId="50"/>
-    <tableColumn id="12" xr3:uid="{5564AF5F-1207-46C0-93E3-5DE77868FFD8}" name="Credit Officer (4 - 6 years experience)" dataDxfId="49"/>
-    <tableColumn id="13" xr3:uid="{BBA66881-C87B-49DF-ADA6-380CF853E9EC}" name="Credit Officer (7 years experience)" dataDxfId="48"/>
-    <tableColumn id="14" xr3:uid="{55CFA81E-4093-4FDA-AD41-30858DB94532}" name="Relationship Manager (new graduate)" dataDxfId="47"/>
-    <tableColumn id="15" xr3:uid="{F56CE651-A2A5-449A-A12B-474384B171FA}" name="Relationship Manager (1 - 3 years experience)" dataDxfId="46"/>
-    <tableColumn id="16" xr3:uid="{24173853-DFD6-4B76-9828-8BCC65361245}" name="Relationship Manager (4 - 6 years experience)" dataDxfId="45"/>
-    <tableColumn id="17" xr3:uid="{EEF241E3-1B7A-430F-8B98-2B19D441D735}" name="Relationship Manager (7 years experience)" dataDxfId="44"/>
-    <tableColumn id="18" xr3:uid="{A981C846-03DB-4805-8814-E983B6ACDC1E}" name="Human Resources Officer (new graduate)" dataDxfId="43"/>
-    <tableColumn id="19" xr3:uid="{75FF3112-A473-4666-BEAB-F20D69B16288}" name="Human Resources Officer (1 - 3 years experience)" dataDxfId="42"/>
-    <tableColumn id="20" xr3:uid="{E2F1965C-EEB5-4619-8E4B-F6543495A24F}" name="Human Resources Officer (4 - 6 years experience)" dataDxfId="41"/>
-    <tableColumn id="21" xr3:uid="{CB477148-DE63-4343-83FF-7F370A5102BB}" name="Human Resources Officer (7 years experience)" dataDxfId="40"/>
-    <tableColumn id="22" xr3:uid="{0CB13A6D-4893-45E2-8E22-D150D1CDB741}" name="Finance Officer (new graduate)" dataDxfId="39"/>
-    <tableColumn id="23" xr3:uid="{3B96E0E5-C4F9-4297-93DA-A8BE4E219275}" name="Finance Officer (1 - 3 years experience)" dataDxfId="38"/>
-    <tableColumn id="24" xr3:uid="{BEBAEF98-EEF4-45CC-A27F-76293019D916}" name="Finance Officer (4 - 6 years experience)" dataDxfId="37"/>
-    <tableColumn id="25" xr3:uid="{B0C0AA75-BB08-4213-91CB-6B04F9514567}" name="Finance Officer (7 years experience)" dataDxfId="36"/>
-    <tableColumn id="26" xr3:uid="{B78F23A0-1749-4A8F-8F6B-A4257BE5F1B9}" name="IT Officer (new graduate)" dataDxfId="35"/>
-    <tableColumn id="27" xr3:uid="{CEAADD6E-B200-4CDA-A43F-8B5210FC7C95}" name="IT Officer (1 - 3 years experience)" dataDxfId="34"/>
-    <tableColumn id="28" xr3:uid="{DCDEA66E-0DE0-4356-892A-E7D8ABB1C9E8}" name="IT Officer (4 - 6 years experience)" dataDxfId="33"/>
-    <tableColumn id="29" xr3:uid="{19382C69-7FE3-430F-93A3-CA82D9E5CA6F}" name="IT Officer (7 years experience)" dataDxfId="32"/>
-    <tableColumn id="30" xr3:uid="{D88063CB-AED8-4CF1-B1A5-EF80704E0A11}" name="Administrative Officer (new graduate)" dataDxfId="31"/>
-    <tableColumn id="31" xr3:uid="{80EAC206-4C2C-4F81-A29A-1F9A438CE591}" name="Administrative Officer (1 - 3 years experience)" dataDxfId="30"/>
-    <tableColumn id="32" xr3:uid="{57AEA966-EB02-4C7C-996A-E31D1CD16E7A}" name="Administrative Officer (4 - 6 years experience)" dataDxfId="29"/>
-    <tableColumn id="33" xr3:uid="{B88C6169-E3BE-4DB6-B882-7591AAEE6CC0}" name="Administrative Officer (7 years experience)" dataDxfId="28"/>
-    <tableColumn id="34" xr3:uid="{BE687D80-E2E8-4D37-BE6B-A4D9D3C30E7F}" name="Compliance Officer (new graduate)" dataDxfId="27"/>
-    <tableColumn id="35" xr3:uid="{E747DB0C-0A9E-41C5-BCC4-E66666C7F560}" name="Compliance Officer (1 - 3 years experience)" dataDxfId="26"/>
-    <tableColumn id="36" xr3:uid="{23028A56-6386-4139-B2F9-3F3FA1346A76}" name="Compliance Officer (4 - 6 years experience)" dataDxfId="25"/>
-    <tableColumn id="37" xr3:uid="{E21A9C19-097E-4C05-A8E3-D21675115221}" name="Compliance Officer (7 years experience)" dataDxfId="24"/>
-    <tableColumn id="38" xr3:uid="{564CF9A4-719B-40B9-A887-6BF8CC0CD850}" name="Legal Officer (new graduate)" dataDxfId="23"/>
-    <tableColumn id="39" xr3:uid="{BB50B36D-369E-4397-BF5D-4F93D74AB6BF}" name="Legal Officer (1 - 3 years experience)" dataDxfId="22"/>
-    <tableColumn id="40" xr3:uid="{24633842-35B5-4C8B-B467-E0052128B487}" name="Legal Officer (4 - 6 years experience)" dataDxfId="21"/>
-    <tableColumn id="41" xr3:uid="{321A6EBE-26B6-46C7-9253-34955D8C1E5A}" name="Legal Officer (7 years experience)" dataDxfId="20"/>
-    <tableColumn id="42" xr3:uid="{41AEC150-32C2-4706-906E-9C216901E1D1}" name="Does your Company or Organization plan to increase or decrease headcount in next 6 to 12 months?" dataDxfId="19"/>
-    <tableColumn id="43" xr3:uid="{A7D3927B-A660-41AF-91A6-F47B41F8338F}" name="Why does your Company or Organization increase the headcount?" dataDxfId="18"/>
-    <tableColumn id="44" xr3:uid="{506D78A1-949D-4B7A-A15F-C20208F74856}" name="Please indicate job functions that your Company or Organization plan to hire or increase in next 6 to 12 months" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{6EA99E83-E1FD-4C22-BF5C-1CAFBB2949A6}" name="Timestamp" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{EB815338-E99B-42D0-9A89-2253094DA7C2}" name="Your Name" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{194B2003-711E-4CCA-8317-FBF621E35997}" name="Your Email" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{B5EF8F01-A37C-4F2C-AC65-0E26E9691BF5}" name="Company or Organization name" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{1ABCA8FF-5BFA-49B8-A521-AA1AB2AC85A2}" name="Number of employee (Full-time equivalent)" dataDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{92C8BA14-4CD8-4E61-97D2-44634C80CCA8}" name="Teller (new graduate)" dataDxfId="56"/>
+    <tableColumn id="7" xr3:uid="{123AA8E7-5F83-42D8-932C-B0D5D348D710}" name="Teller(1 - 3 years experience)" dataDxfId="55"/>
+    <tableColumn id="8" xr3:uid="{36C822C9-F357-4552-8634-53802CA84169}" name="Teller (4 - 6 years experience)" dataDxfId="54"/>
+    <tableColumn id="9" xr3:uid="{2D074D0D-755C-4FF8-8F11-2A8B37C30527}" name="Teller (7 years experience)" dataDxfId="53"/>
+    <tableColumn id="10" xr3:uid="{2A3ECBF1-B581-4553-813E-CFEEAC14FFE8}" name="Credit Officer (new graduate)" dataDxfId="52"/>
+    <tableColumn id="11" xr3:uid="{2287CB61-44C0-43BD-BECA-10EB3BED28EA}" name="Credit Officer (1 - 3 years experience)" dataDxfId="51"/>
+    <tableColumn id="12" xr3:uid="{5564AF5F-1207-46C0-93E3-5DE77868FFD8}" name="Credit Officer (4 - 6 years experience)" dataDxfId="50"/>
+    <tableColumn id="13" xr3:uid="{BBA66881-C87B-49DF-ADA6-380CF853E9EC}" name="Credit Officer (7 years experience)" dataDxfId="49"/>
+    <tableColumn id="14" xr3:uid="{55CFA81E-4093-4FDA-AD41-30858DB94532}" name="Relationship Manager (new graduate)" dataDxfId="48"/>
+    <tableColumn id="15" xr3:uid="{F56CE651-A2A5-449A-A12B-474384B171FA}" name="Relationship Manager (1 - 3 years experience)" dataDxfId="47"/>
+    <tableColumn id="16" xr3:uid="{24173853-DFD6-4B76-9828-8BCC65361245}" name="Relationship Manager (4 - 6 years experience)" dataDxfId="46"/>
+    <tableColumn id="17" xr3:uid="{EEF241E3-1B7A-430F-8B98-2B19D441D735}" name="Relationship Manager (7 years experience)" dataDxfId="45"/>
+    <tableColumn id="18" xr3:uid="{A981C846-03DB-4805-8814-E983B6ACDC1E}" name="Human Resources Officer (new graduate)" dataDxfId="44"/>
+    <tableColumn id="19" xr3:uid="{75FF3112-A473-4666-BEAB-F20D69B16288}" name="Human Resources Officer (1 - 3 years experience)" dataDxfId="43"/>
+    <tableColumn id="20" xr3:uid="{E2F1965C-EEB5-4619-8E4B-F6543495A24F}" name="Human Resources Officer (4 - 6 years experience)" dataDxfId="42"/>
+    <tableColumn id="21" xr3:uid="{CB477148-DE63-4343-83FF-7F370A5102BB}" name="Human Resources Officer (7 years experience)" dataDxfId="41"/>
+    <tableColumn id="22" xr3:uid="{0CB13A6D-4893-45E2-8E22-D150D1CDB741}" name="Finance Officer (new graduate)" dataDxfId="40"/>
+    <tableColumn id="23" xr3:uid="{3B96E0E5-C4F9-4297-93DA-A8BE4E219275}" name="Finance Officer (1 - 3 years experience)" dataDxfId="39"/>
+    <tableColumn id="24" xr3:uid="{BEBAEF98-EEF4-45CC-A27F-76293019D916}" name="Finance Officer (4 - 6 years experience)" dataDxfId="38"/>
+    <tableColumn id="25" xr3:uid="{B0C0AA75-BB08-4213-91CB-6B04F9514567}" name="Finance Officer (7 years experience)" dataDxfId="37"/>
+    <tableColumn id="26" xr3:uid="{B78F23A0-1749-4A8F-8F6B-A4257BE5F1B9}" name="IT Officer (new graduate)" dataDxfId="36"/>
+    <tableColumn id="27" xr3:uid="{CEAADD6E-B200-4CDA-A43F-8B5210FC7C95}" name="IT Officer (1 - 3 years experience)" dataDxfId="35"/>
+    <tableColumn id="28" xr3:uid="{DCDEA66E-0DE0-4356-892A-E7D8ABB1C9E8}" name="IT Officer (4 - 6 years experience)" dataDxfId="34"/>
+    <tableColumn id="29" xr3:uid="{19382C69-7FE3-430F-93A3-CA82D9E5CA6F}" name="IT Officer (7 years experience)" dataDxfId="33"/>
+    <tableColumn id="30" xr3:uid="{D88063CB-AED8-4CF1-B1A5-EF80704E0A11}" name="Administrative Officer (new graduate)" dataDxfId="32"/>
+    <tableColumn id="31" xr3:uid="{80EAC206-4C2C-4F81-A29A-1F9A438CE591}" name="Administrative Officer (1 - 3 years experience)" dataDxfId="31"/>
+    <tableColumn id="32" xr3:uid="{57AEA966-EB02-4C7C-996A-E31D1CD16E7A}" name="Administrative Officer (4 - 6 years experience)" dataDxfId="30"/>
+    <tableColumn id="33" xr3:uid="{B88C6169-E3BE-4DB6-B882-7591AAEE6CC0}" name="Administrative Officer (7 years experience)" dataDxfId="29"/>
+    <tableColumn id="34" xr3:uid="{BE687D80-E2E8-4D37-BE6B-A4D9D3C30E7F}" name="Compliance Officer (new graduate)" dataDxfId="28"/>
+    <tableColumn id="35" xr3:uid="{E747DB0C-0A9E-41C5-BCC4-E66666C7F560}" name="Compliance Officer (1 - 3 years experience)" dataDxfId="27"/>
+    <tableColumn id="36" xr3:uid="{23028A56-6386-4139-B2F9-3F3FA1346A76}" name="Compliance Officer (4 - 6 years experience)" dataDxfId="26"/>
+    <tableColumn id="37" xr3:uid="{E21A9C19-097E-4C05-A8E3-D21675115221}" name="Compliance Officer (7 years experience)" dataDxfId="25"/>
+    <tableColumn id="38" xr3:uid="{564CF9A4-719B-40B9-A887-6BF8CC0CD850}" name="Legal Officer (new graduate)" dataDxfId="24"/>
+    <tableColumn id="39" xr3:uid="{BB50B36D-369E-4397-BF5D-4F93D74AB6BF}" name="Legal Officer (1 - 3 years experience)" dataDxfId="23"/>
+    <tableColumn id="40" xr3:uid="{24633842-35B5-4C8B-B467-E0052128B487}" name="Legal Officer (4 - 6 years experience)" dataDxfId="22"/>
+    <tableColumn id="41" xr3:uid="{321A6EBE-26B6-46C7-9253-34955D8C1E5A}" name="Legal Officer (7 years experience)" dataDxfId="21"/>
+    <tableColumn id="42" xr3:uid="{41AEC150-32C2-4706-906E-9C216901E1D1}" name="Does your Company or Organization plan to increase or decrease headcount in next 6 to 12 months?" dataDxfId="20"/>
+    <tableColumn id="43" xr3:uid="{A7D3927B-A660-41AF-91A6-F47B41F8338F}" name="Why does your Company or Organization increase the headcount?" dataDxfId="19"/>
+    <tableColumn id="44" xr3:uid="{506D78A1-949D-4B7A-A15F-C20208F74856}" name="Please indicate job functions that your Company or Organization plan to hire or increase in next 6 to 12 months" dataDxfId="18"/>
     <tableColumn id="45" xr3:uid="{592618B9-501C-4AC8-87F0-1136E05E570E}" name="Why does your Company or Organization decrease the headcount?"/>
     <tableColumn id="46" xr3:uid="{A9BD5093-CACC-4138-9A55-B7F414B8722C}" name="Please indicate job functions that your Company or Organization plan to decrease in next 6 to 12 months"/>
-    <tableColumn id="47" xr3:uid="{23F4D81B-C1AE-4A04-AA78-DAC8F02414FF}" name="What kind of skills does your Company or Organization require?" dataDxfId="16"/>
-    <tableColumn id="48" xr3:uid="{FA14FAA4-16FC-490B-9F71-67F1BDEBB8E5}" name="Column1" dataDxfId="15"/>
-    <tableColumn id="49" xr3:uid="{B35213C5-4979-4439-AAEC-9A1D4B698F4F}" name="Column2" dataDxfId="14"/>
-    <tableColumn id="50" xr3:uid="{21D6737D-42A7-4AB9-BBE3-1F2BA3DD5EF1}" name="Column3" dataDxfId="13"/>
-    <tableColumn id="51" xr3:uid="{CCF7DAE3-952B-43FD-BE97-93085B60CA32}" name="Column4" dataDxfId="12"/>
-    <tableColumn id="52" xr3:uid="{F7D55EFB-2502-406B-BD88-DAA80D6D6DCB}" name="Column5" dataDxfId="11"/>
-    <tableColumn id="53" xr3:uid="{047402C0-7434-44A8-BC8E-79FBF5CD556E}" name="Column6" dataDxfId="10"/>
-    <tableColumn id="54" xr3:uid="{77944790-8E11-4D8A-9A16-159D0BB57011}" name="Column7" dataDxfId="9"/>
-    <tableColumn id="55" xr3:uid="{C52C07C0-CEF2-4084-898D-A2ED8FA2BAAF}" name="Column8" dataDxfId="8"/>
-    <tableColumn id="56" xr3:uid="{C78425B1-7AD3-4482-95B0-A57E2415FEFE}" name="Column9" dataDxfId="7"/>
-    <tableColumn id="57" xr3:uid="{073F4470-1DC6-4692-9D7E-5AC3C4615AB8}" name="Column10" dataDxfId="6"/>
-    <tableColumn id="58" xr3:uid="{E2A7EDB3-A6B0-484A-9307-12AC2C19AEF6}" name="Column11" dataDxfId="5"/>
-    <tableColumn id="59" xr3:uid="{4C3D9DD0-C031-4B80-9519-98D1B9478419}" name="Column12" dataDxfId="4"/>
-    <tableColumn id="60" xr3:uid="{BE62DA21-E14D-4966-871D-D29048BBD19E}" name="Column13" dataDxfId="3"/>
-    <tableColumn id="61" xr3:uid="{A19D69CD-03A1-438D-9D01-9A9397E6EE5B}" name="Column14" dataDxfId="2"/>
-    <tableColumn id="62" xr3:uid="{4DE39A9D-F7FA-4737-803D-177CA78E5184}" name="Column15" dataDxfId="1"/>
-    <tableColumn id="63" xr3:uid="{21C0692B-8180-4A09-B052-532F1E149D17}" name="Column16" dataDxfId="0"/>
+    <tableColumn id="47" xr3:uid="{23F4D81B-C1AE-4A04-AA78-DAC8F02414FF}" name="What kind of skills does your Company or Organization require?" dataDxfId="17"/>
+    <tableColumn id="48" xr3:uid="{FA14FAA4-16FC-490B-9F71-67F1BDEBB8E5}" name="Column1" dataDxfId="16"/>
+    <tableColumn id="49" xr3:uid="{B35213C5-4979-4439-AAEC-9A1D4B698F4F}" name="Column2" dataDxfId="15"/>
+    <tableColumn id="50" xr3:uid="{21D6737D-42A7-4AB9-BBE3-1F2BA3DD5EF1}" name="Column3" dataDxfId="14"/>
+    <tableColumn id="51" xr3:uid="{CCF7DAE3-952B-43FD-BE97-93085B60CA32}" name="Column4" dataDxfId="13"/>
+    <tableColumn id="52" xr3:uid="{F7D55EFB-2502-406B-BD88-DAA80D6D6DCB}" name="Column5" dataDxfId="12"/>
+    <tableColumn id="53" xr3:uid="{047402C0-7434-44A8-BC8E-79FBF5CD556E}" name="Column6" dataDxfId="11"/>
+    <tableColumn id="54" xr3:uid="{77944790-8E11-4D8A-9A16-159D0BB57011}" name="Column7" dataDxfId="10"/>
+    <tableColumn id="55" xr3:uid="{C52C07C0-CEF2-4084-898D-A2ED8FA2BAAF}" name="Column8" dataDxfId="9"/>
+    <tableColumn id="56" xr3:uid="{C78425B1-7AD3-4482-95B0-A57E2415FEFE}" name="Column9" dataDxfId="8"/>
+    <tableColumn id="57" xr3:uid="{073F4470-1DC6-4692-9D7E-5AC3C4615AB8}" name="Column10" dataDxfId="7"/>
+    <tableColumn id="58" xr3:uid="{E2A7EDB3-A6B0-484A-9307-12AC2C19AEF6}" name="Column11" dataDxfId="6"/>
+    <tableColumn id="59" xr3:uid="{4C3D9DD0-C031-4B80-9519-98D1B9478419}" name="Column12" dataDxfId="5"/>
+    <tableColumn id="60" xr3:uid="{BE62DA21-E14D-4966-871D-D29048BBD19E}" name="Column13" dataDxfId="4"/>
+    <tableColumn id="61" xr3:uid="{A19D69CD-03A1-438D-9D01-9A9397E6EE5B}" name="Column14" dataDxfId="3"/>
+    <tableColumn id="62" xr3:uid="{4DE39A9D-F7FA-4737-803D-177CA78E5184}" name="Column15" dataDxfId="2"/>
+    <tableColumn id="63" xr3:uid="{21C0692B-8180-4A09-B052-532F1E149D17}" name="Column16" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2708,98 +2768,1204 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C070B38-7381-4F94-90FE-FFFEE5EEDCE8}">
-  <dimension ref="A3:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E427A7-BDA1-4A74-8FDA-5499DE2D28B9}">
+  <dimension ref="A1:BK7"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" customWidth="1"/>
+    <col min="5" max="5" width="42" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="29.5703125" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" customWidth="1"/>
+    <col min="10" max="10" width="29.42578125" customWidth="1"/>
+    <col min="11" max="12" width="36.85546875" customWidth="1"/>
+    <col min="13" max="13" width="34.140625" customWidth="1"/>
+    <col min="14" max="14" width="37.28515625" customWidth="1"/>
+    <col min="15" max="16" width="44.7109375" customWidth="1"/>
+    <col min="17" max="17" width="42" customWidth="1"/>
+    <col min="18" max="18" width="40.28515625" customWidth="1"/>
+    <col min="19" max="20" width="47.7109375" customWidth="1"/>
+    <col min="21" max="21" width="45" customWidth="1"/>
+    <col min="22" max="22" width="31.28515625" customWidth="1"/>
+    <col min="23" max="24" width="38.7109375" customWidth="1"/>
+    <col min="25" max="25" width="36" customWidth="1"/>
+    <col min="26" max="26" width="25.7109375" customWidth="1"/>
+    <col min="27" max="28" width="33.140625" customWidth="1"/>
+    <col min="29" max="29" width="30.42578125" customWidth="1"/>
+    <col min="30" max="30" width="37" customWidth="1"/>
+    <col min="31" max="32" width="44.42578125" customWidth="1"/>
+    <col min="33" max="33" width="41.7109375" customWidth="1"/>
+    <col min="34" max="34" width="34.85546875" customWidth="1"/>
+    <col min="35" max="36" width="42.28515625" customWidth="1"/>
+    <col min="37" max="37" width="39.5703125" customWidth="1"/>
+    <col min="38" max="38" width="29.140625" customWidth="1"/>
+    <col min="39" max="40" width="36.5703125" customWidth="1"/>
+    <col min="41" max="41" width="33.85546875" customWidth="1"/>
+    <col min="42" max="42" width="73.42578125" customWidth="1"/>
+    <col min="43" max="43" width="63.42578125" customWidth="1"/>
+    <col min="44" max="44" width="73.42578125" customWidth="1"/>
+    <col min="45" max="45" width="64" customWidth="1"/>
+    <col min="46" max="46" width="73.42578125" customWidth="1"/>
+    <col min="47" max="47" width="61.140625" customWidth="1"/>
+    <col min="48" max="56" width="11.140625" customWidth="1"/>
+    <col min="57" max="63" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>43628.573981481481</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>250</v>
+      </c>
+      <c r="G2">
+        <v>325</v>
+      </c>
+      <c r="H2">
+        <v>475</v>
+      </c>
+      <c r="I2">
+        <v>800</v>
+      </c>
+      <c r="J2">
+        <v>250</v>
+      </c>
+      <c r="K2">
+        <v>325</v>
+      </c>
+      <c r="L2">
+        <v>425</v>
+      </c>
+      <c r="M2">
+        <v>500</v>
+      </c>
+      <c r="N2">
+        <v>750</v>
+      </c>
+      <c r="O2">
+        <v>1100</v>
+      </c>
+      <c r="P2">
+        <v>1350</v>
+      </c>
+      <c r="Q2">
+        <v>1500</v>
+      </c>
+      <c r="R2">
+        <v>250</v>
+      </c>
+      <c r="S2">
+        <v>400</v>
+      </c>
+      <c r="T2">
+        <v>500</v>
+      </c>
+      <c r="U2">
+        <v>700</v>
+      </c>
+      <c r="V2">
+        <v>250</v>
+      </c>
+      <c r="W2">
+        <v>400</v>
+      </c>
+      <c r="X2">
+        <v>500</v>
+      </c>
+      <c r="Y2">
+        <v>700</v>
+      </c>
+      <c r="Z2">
+        <v>250</v>
+      </c>
+      <c r="AA2">
+        <v>350</v>
+      </c>
+      <c r="AB2">
+        <v>450</v>
+      </c>
+      <c r="AC2">
+        <v>500</v>
+      </c>
+      <c r="AD2">
+        <v>250</v>
+      </c>
+      <c r="AE2">
+        <v>350</v>
+      </c>
+      <c r="AF2">
+        <v>450</v>
+      </c>
+      <c r="AG2">
+        <v>500</v>
+      </c>
+      <c r="AH2">
+        <v>250</v>
+      </c>
+      <c r="AI2">
+        <v>350</v>
+      </c>
+      <c r="AJ2">
+        <v>450</v>
+      </c>
+      <c r="AK2">
+        <v>500</v>
+      </c>
+      <c r="AL2">
+        <v>250</v>
+      </c>
+      <c r="AM2">
+        <v>350</v>
+      </c>
+      <c r="AN2">
+        <v>450</v>
+      </c>
+      <c r="AO2">
+        <v>500</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU2" t="s">
         <v>75</v>
       </c>
+      <c r="AV2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>43628.614756944444</v>
+      </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>350</v>
+      </c>
+      <c r="G3">
+        <v>400</v>
+      </c>
+      <c r="H3">
+        <v>450</v>
+      </c>
+      <c r="I3">
+        <v>550</v>
+      </c>
+      <c r="J3">
+        <v>450</v>
+      </c>
+      <c r="K3">
+        <v>500</v>
+      </c>
+      <c r="L3">
+        <v>550</v>
+      </c>
+      <c r="M3">
+        <v>650</v>
+      </c>
+      <c r="N3">
+        <v>1500</v>
+      </c>
+      <c r="O3">
+        <v>2000</v>
+      </c>
+      <c r="P3">
+        <v>2500</v>
+      </c>
+      <c r="Q3">
+        <v>3000</v>
+      </c>
+      <c r="R3">
+        <v>450</v>
+      </c>
+      <c r="S3">
+        <v>500</v>
+      </c>
+      <c r="T3">
+        <v>550</v>
+      </c>
+      <c r="U3">
+        <v>650</v>
+      </c>
+      <c r="V3">
+        <v>450</v>
+      </c>
+      <c r="W3">
+        <v>500</v>
+      </c>
+      <c r="X3">
+        <v>550</v>
+      </c>
+      <c r="Y3">
+        <v>650</v>
+      </c>
+      <c r="Z3">
+        <v>500</v>
+      </c>
+      <c r="AA3">
+        <v>600</v>
+      </c>
+      <c r="AB3">
+        <v>700</v>
+      </c>
+      <c r="AC3">
+        <v>900</v>
+      </c>
+      <c r="AD3">
+        <v>450</v>
+      </c>
+      <c r="AE3">
+        <v>500</v>
+      </c>
+      <c r="AF3">
+        <v>550</v>
+      </c>
+      <c r="AG3">
+        <v>650</v>
+      </c>
+      <c r="AH3">
+        <v>450</v>
+      </c>
+      <c r="AI3">
+        <v>500</v>
+      </c>
+      <c r="AJ3">
+        <v>550</v>
+      </c>
+      <c r="AK3">
+        <v>650</v>
+      </c>
+      <c r="AL3">
+        <v>500</v>
+      </c>
+      <c r="AM3">
+        <v>600</v>
+      </c>
+      <c r="AN3">
+        <v>700</v>
+      </c>
+      <c r="AO3">
+        <v>800</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW3" t="s">
         <v>77</v>
       </c>
+      <c r="AX3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>88</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>43629.606805555559</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>300</v>
+      </c>
+      <c r="G4">
+        <v>350</v>
+      </c>
+      <c r="H4">
+        <v>450</v>
+      </c>
+      <c r="I4">
+        <v>650</v>
+      </c>
+      <c r="J4">
+        <v>320</v>
+      </c>
+      <c r="K4">
+        <v>380</v>
+      </c>
+      <c r="L4">
+        <v>500</v>
+      </c>
+      <c r="M4">
+        <v>750</v>
+      </c>
+      <c r="P4">
+        <v>1800</v>
+      </c>
+      <c r="Q4">
+        <v>2000</v>
+      </c>
+      <c r="R4">
+        <v>320</v>
+      </c>
+      <c r="S4">
+        <v>350</v>
+      </c>
+      <c r="T4">
+        <v>450</v>
+      </c>
+      <c r="U4">
+        <v>650</v>
+      </c>
+      <c r="V4">
+        <v>320</v>
+      </c>
+      <c r="W4">
+        <v>380</v>
+      </c>
+      <c r="X4">
+        <v>450</v>
+      </c>
+      <c r="Y4">
+        <v>650</v>
+      </c>
+      <c r="Z4">
+        <v>320</v>
+      </c>
+      <c r="AA4">
+        <v>380</v>
+      </c>
+      <c r="AB4">
+        <v>500</v>
+      </c>
+      <c r="AC4">
+        <v>750</v>
+      </c>
+      <c r="AD4">
+        <v>320</v>
+      </c>
+      <c r="AE4">
+        <v>380</v>
+      </c>
+      <c r="AF4">
+        <v>450</v>
+      </c>
+      <c r="AG4">
+        <v>650</v>
+      </c>
+      <c r="AH4">
+        <v>320</v>
+      </c>
+      <c r="AI4">
+        <v>380</v>
+      </c>
+      <c r="AJ4">
+        <v>450</v>
+      </c>
+      <c r="AK4">
+        <v>650</v>
+      </c>
+      <c r="AL4">
+        <v>320</v>
+      </c>
+      <c r="AM4">
+        <v>380</v>
+      </c>
+      <c r="AN4">
+        <v>450</v>
+      </c>
+      <c r="AO4">
+        <v>650</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>87</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>90</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>43629.607175925928</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>300</v>
+      </c>
+      <c r="G5">
+        <v>350</v>
+      </c>
+      <c r="H5">
+        <v>450</v>
+      </c>
+      <c r="I5">
+        <v>650</v>
+      </c>
+      <c r="J5">
+        <v>320</v>
+      </c>
+      <c r="K5">
+        <v>380</v>
+      </c>
+      <c r="L5">
+        <v>500</v>
+      </c>
+      <c r="M5">
+        <v>750</v>
+      </c>
+      <c r="P5">
+        <v>1800</v>
+      </c>
+      <c r="Q5">
+        <v>2000</v>
+      </c>
+      <c r="R5">
+        <v>320</v>
+      </c>
+      <c r="S5">
+        <v>350</v>
+      </c>
+      <c r="T5">
+        <v>450</v>
+      </c>
+      <c r="U5">
+        <v>650</v>
+      </c>
+      <c r="V5">
+        <v>320</v>
+      </c>
+      <c r="W5">
+        <v>380</v>
+      </c>
+      <c r="X5">
+        <v>450</v>
+      </c>
+      <c r="Y5">
+        <v>650</v>
+      </c>
+      <c r="Z5">
+        <v>320</v>
+      </c>
+      <c r="AA5">
+        <v>380</v>
+      </c>
+      <c r="AB5">
+        <v>500</v>
+      </c>
+      <c r="AC5">
+        <v>750</v>
+      </c>
+      <c r="AD5">
+        <v>320</v>
+      </c>
+      <c r="AE5">
+        <v>380</v>
+      </c>
+      <c r="AF5">
+        <v>450</v>
+      </c>
+      <c r="AG5">
+        <v>650</v>
+      </c>
+      <c r="AH5">
+        <v>320</v>
+      </c>
+      <c r="AI5">
+        <v>380</v>
+      </c>
+      <c r="AJ5">
+        <v>450</v>
+      </c>
+      <c r="AK5">
+        <v>650</v>
+      </c>
+      <c r="AL5">
+        <v>320</v>
+      </c>
+      <c r="AM5">
+        <v>380</v>
+      </c>
+      <c r="AN5">
+        <v>450</v>
+      </c>
+      <c r="AO5">
+        <v>650</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>83</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>87</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>90</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>43628.586562500001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="8">
-        <v>1</v>
+      <c r="F6">
+        <v>300</v>
+      </c>
+      <c r="G6">
+        <v>400</v>
+      </c>
+      <c r="H6">
+        <v>500</v>
+      </c>
+      <c r="J6">
+        <v>300</v>
+      </c>
+      <c r="K6">
+        <v>450</v>
+      </c>
+      <c r="L6">
+        <v>600</v>
+      </c>
+      <c r="S6">
+        <v>400</v>
+      </c>
+      <c r="V6">
+        <v>300</v>
+      </c>
+      <c r="AB6">
+        <v>1500</v>
+      </c>
+      <c r="AD6">
+        <v>300</v>
+      </c>
+      <c r="AE6">
+        <v>500</v>
+      </c>
+      <c r="AF6">
+        <v>1500</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>114</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>115</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>117</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>118</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>119</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>121</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>122</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>43633.879189814812</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="8">
-        <v>6</v>
+      <c r="F7">
+        <v>250</v>
+      </c>
+      <c r="G7">
+        <v>350</v>
+      </c>
+      <c r="J7">
+        <v>250</v>
+      </c>
+      <c r="K7">
+        <v>300</v>
+      </c>
+      <c r="R7">
+        <v>250</v>
+      </c>
+      <c r="S7">
+        <v>250</v>
+      </c>
+      <c r="V7">
+        <v>250</v>
+      </c>
+      <c r="W7">
+        <v>280</v>
+      </c>
+      <c r="Z7">
+        <v>250</v>
+      </c>
+      <c r="AA7">
+        <v>280</v>
+      </c>
+      <c r="AD7">
+        <v>250</v>
+      </c>
+      <c r="AE7">
+        <v>280</v>
+      </c>
+      <c r="AH7">
+        <v>250</v>
+      </c>
+      <c r="AI7">
+        <v>280</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDDD110D-EDD5-46BD-97E0-110E8B9498BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67406DC-A251-4325-B2A7-A0C8CC7202D4}">
   <dimension ref="A3:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
-        <v>291.66666666666669</v>
-      </c>
-      <c r="B4" s="8">
-        <v>362.5</v>
-      </c>
-      <c r="C4" s="8">
-        <v>465</v>
-      </c>
-      <c r="D4" s="8">
-        <v>662.5</v>
+      <c r="A4" s="6">
+        <v>1125</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1550</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1862.5</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2125</v>
       </c>
     </row>
   </sheetData>
@@ -2814,9 +3980,9 @@
   </sheetPr>
   <dimension ref="A1:BS7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AU2" sqref="AU2:BL7"/>
+      <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3007,52 +4173,52 @@
         <v>10</v>
       </c>
       <c r="AV1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC1" t="s">
         <v>98</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BD1" t="s">
         <v>99</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BE1" t="s">
         <v>100</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BF1" t="s">
         <v>101</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BG1" t="s">
         <v>102</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BH1" t="s">
         <v>103</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BI1" t="s">
         <v>104</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BJ1" t="s">
         <v>105</v>
       </c>
-      <c r="BD1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BE1" t="s">
+      <c r="BK1" t="s">
         <v>107</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>109</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>112</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3189,52 +4355,52 @@
         <v>17</v>
       </c>
       <c r="AU2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="BC2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="BD2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="BE2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="BF2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="BG2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BH2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="BB2" s="2" t="s">
+      <c r="BI2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="BC2" s="2" t="s">
+      <c r="BJ2" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BE2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BG2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BH2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BI2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="BJ2" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="BK2" s="2"/>
     </row>
@@ -3372,43 +4538,43 @@
         <v>22</v>
       </c>
       <c r="AU3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AV3" s="2" t="s">
+      <c r="BB3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="BC3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AX3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AY3" s="2" t="s">
+      <c r="BD3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AZ3" s="2" t="s">
+      <c r="BE3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="BA3" s="2" t="s">
+      <c r="BF3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BG3" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="BB3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="BC3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BD3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BE3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BF3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BG3" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="BH3" s="2"/>
       <c r="BI3" s="2"/>
@@ -3545,55 +4711,55 @@
         <v>26</v>
       </c>
       <c r="AU4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB4" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AV4" s="2" t="s">
+      <c r="BC4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AW4" s="2" t="s">
+      <c r="BD4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AX4" s="2" t="s">
+      <c r="BE4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AY4" s="2" t="s">
+      <c r="BF4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AZ4" s="2" t="s">
+      <c r="BG4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="BA4" s="2" t="s">
+      <c r="BH4" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="BB4" s="2" t="s">
+      <c r="BI4" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="BC4" s="2" t="s">
+      <c r="BJ4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BD4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BE4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BG4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BH4" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BI4" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="BJ4" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="BK4" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3726,55 +4892,55 @@
         <v>26</v>
       </c>
       <c r="AU5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB5" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AV5" s="2" t="s">
+      <c r="BC5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AW5" s="2" t="s">
+      <c r="BD5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AX5" s="2" t="s">
+      <c r="BE5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AY5" s="2" t="s">
+      <c r="BF5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AZ5" s="2" t="s">
+      <c r="BG5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="BA5" s="2" t="s">
+      <c r="BH5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="BB5" s="2" t="s">
+      <c r="BI5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="BC5" s="2" t="s">
+      <c r="BJ5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BD5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BE5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BG5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BH5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BI5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="BJ5" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="BK5" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3865,52 +5031,52 @@
       <c r="AS6" s="5"/>
       <c r="AT6" s="5"/>
       <c r="AU6" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AV6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AY6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="BB6" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AV6" s="2" t="s">
+      <c r="BC6" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AW6" s="2" t="s">
+      <c r="BD6" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AX6" s="2" t="s">
+      <c r="BE6" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AY6" s="2" t="s">
+      <c r="BF6" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AZ6" s="2" t="s">
+      <c r="BG6" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="BA6" s="2" t="s">
+      <c r="BH6" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="BB6" s="2" t="s">
+      <c r="BI6" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="BC6" s="2" t="s">
+      <c r="BJ6" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="BD6" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="BE6" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="BF6" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="BG6" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BH6" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BI6" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BJ6" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="BK6" s="2"/>
       <c r="BL6" s="5"/>
@@ -4014,19 +5180,19 @@
       <c r="AS7" s="5"/>
       <c r="AT7" s="5"/>
       <c r="AU7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AV7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY7" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="AV7" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AW7" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AX7" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AY7" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="AZ7" s="2"/>
       <c r="BA7" s="2"/>
@@ -4056,16 +5222,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F6DB66-CE45-4BF3-BB75-B4717C33549F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>